--- a/java/java/18회차_실습체크리스트_김려린.xlsx
+++ b/java/java/18회차_실습체크리스트_김려린.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flsk2\Desktop\KB It's\study\KB_ass_java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flsk2\Desktop\KB It's\study\KB_ass\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5A7E8E-6BC2-40BE-8F17-E25D6FAFB760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9091904B-9D92-4C1E-955E-85A5385ADC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,10 +193,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">git 주소 : </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">git이 없을시 실습이 완료된 디렉터리를 압축하여(홍길동_실습.zip) DM으로 보내주세요.  </t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -354,6 +350,10 @@
   </si>
   <si>
     <t>이름 : 김려린</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>git 주소 : https://github.com/ryeorin/KB_hw</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -753,7 +753,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
@@ -761,7 +761,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
@@ -769,11 +769,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -781,15 +781,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
@@ -797,7 +797,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
@@ -805,19 +805,19 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -825,31 +825,31 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3593,7 +3593,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="3" spans="1:6" ht="27" customHeight="1">
       <c r="A3" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -3658,186 +3658,186 @@
     </row>
     <row r="5" spans="1:6" ht="21.6">
       <c r="A5" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="5"/>
       <c r="E6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="19"/>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="19"/>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="19"/>
       <c r="B9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="19"/>
       <c r="B10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="19"/>
       <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="19"/>
       <c r="B12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="19"/>
       <c r="B13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="19"/>
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="5"/>
       <c r="E14" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="19"/>
       <c r="B15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="5"/>
       <c r="E15" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="19"/>
       <c r="B16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="5"/>
       <c r="E16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="19"/>
       <c r="B17" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="5"/>
       <c r="E17" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3860,7 +3860,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="23" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
@@ -3870,7 +3870,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -3880,7 +3880,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
